--- a/PageObjectMoodel/src/main/resources/repository/LoginTestData.xlsx
+++ b/PageObjectMoodel/src/main/resources/repository/LoginTestData.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16905" windowHeight="3825"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16620" windowHeight="6615"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -25,13 +26,13 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>santoshthakare50gmail.com</t>
-  </si>
-  <si>
-    <t>Santosh234</t>
-  </si>
-  <si>
     <t>muyuresh.sonar@gmail.com</t>
+  </si>
+  <si>
+    <t>santosh@123</t>
+  </si>
+  <si>
+    <t>santoshthakare5000@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -408,7 +409,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,16 +427,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>234567890</v>
@@ -449,8 +450,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>